--- a/xlsx/cantilever.xlsx
+++ b/xlsx/cantilever.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xyt\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mix\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A598ABD7-37D1-4535-B6CC-222A22FC1AFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618489E5-D7C9-4855-AA9E-871EF60714C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="375" yWindow="465" windowWidth="28035" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="TZZ" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ndiv</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -95,16 +95,25 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Tri3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="178" formatCode="0.00000000000000"/>
-    <numFmt numFmtId="179" formatCode="0.00000000000000000"/>
-    <numFmt numFmtId="180" formatCode="0.000000000000"/>
-    <numFmt numFmtId="181" formatCode="0.00000000000000_);[Red]\(0.00000000000000\)"/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="178" formatCode="0.000000000000"/>
+    <numFmt numFmtId="179" formatCode="0.00000000000000_);[Red]\(0.00000000000000\)"/>
+    <numFmt numFmtId="183" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="184" formatCode="0.000000000000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -171,15 +180,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -494,148 +504,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C9121D-876C-401F-BB56-84678718DE70}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+      <selection activeCell="K8" sqref="K7:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="27.375" customWidth="1"/>
     <col min="5" max="5" width="20.75" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>162</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>131</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="3">
         <v>432.998230982319</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="4">
         <v>2.6364861220434599</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>9.6910013008056406E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
         <v>16</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>578</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>515</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="3">
         <v>105.590397459972</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="4">
         <v>2.0236244246393702</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-0.20411998265592399</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
         <v>32</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>2178</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2051</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="3">
         <v>26.227552380153998</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="4">
         <v>1.4187577630496799</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-0.50514997831990505</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
         <v>64</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>8450</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>8195</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>6.5461136365449297</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="4">
         <v>0.81598354012506302</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-0.80617997398388697</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>162</v>
+      </c>
+      <c r="D7">
+        <v>146</v>
+      </c>
+      <c r="E7" s="3">
+        <v>155.73690695401001</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2.19239154504778</v>
+      </c>
+      <c r="G7">
+        <v>9.6910013008056406E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>578</v>
+      </c>
+      <c r="D8">
+        <v>546</v>
+      </c>
+      <c r="E8" s="5">
+        <v>38.419389476380204</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1.5845504591944399</v>
+      </c>
+      <c r="G8">
+        <v>-0.20411998265592399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>2178</v>
+      </c>
+      <c r="D9">
+        <v>2114</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9.5730444774801793</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.98105007670063105</v>
+      </c>
+      <c r="G9">
+        <v>-0.50514997831990505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>64</v>
+      </c>
+      <c r="C10">
+        <v>8450</v>
+      </c>
+      <c r="D10">
+        <v>8321</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.39127930942308</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.37863030612691601</v>
+      </c>
+      <c r="G10">
+        <v>-0.80617997398388697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
